--- a/example parameters.xlsx
+++ b/example parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssyram/workspace/github/ProgramAnalyser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EBE6843-F338-B742-AC99-63D067C68C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F935AF-80B6-1749-9926-AD78ADFA242C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="500" windowWidth="22620" windowHeight="17000" xr2:uid="{31D13EEB-4E70-0B4A-A5A4-836E1D969A77}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17160" xr2:uid="{31D13EEB-4E70-0B4A-A5A4-836E1D969A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="53">
   <si>
     <t>Example Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,22 +70,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Concentration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>h-t-r-2-3-inside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,22 +82,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Direct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pedestrian-multiple-branches-v3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Termination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pedestrian-multiple-branches-v4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p_lambda: 0-2, p_time:0-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>random-walk-beta-inside-scorey-v1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>para-estimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pedestrian-beta-inside-v1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pedestrian-original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Table 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,20 +147,6 @@
     <t>add-uniform-unbounded-Q2</t>
   </si>
   <si>
-    <t>cav-ex5-Q2</t>
-  </si>
-  <si>
-    <t>cav-ex5-Q1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cav-ex7-Q1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cav-ex7-Q2</t>
-  </si>
-  <si>
     <t>growing-walk-Q1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,26 +155,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p_p:0~1, p_t:0~10</t>
-  </si>
-  <si>
-    <t>p_x:0~1, p_y:0~1</t>
-  </si>
-  <si>
-    <t>p_m:10~20, p_i:0~20</t>
-  </si>
-  <si>
-    <t>p_c:0~30, p_i:0~4</t>
-  </si>
-  <si>
-    <t>p_t:0~0.1, p_x:1~10</t>
-  </si>
-  <si>
-    <t>p_x:-0.8~0.8, p_t:0~10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Table 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h-t-r-2-3-inside-score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>para-estimation-recursive</t>
+  </si>
+  <si>
+    <t>pedestrian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cav-example-5-Q1</t>
+  </si>
+  <si>
+    <t>cav-example-5-Q2</t>
+  </si>
+  <si>
+    <t>cav-example-7-Q1</t>
+  </si>
+  <si>
+    <t>cav-example-7-Q2</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>termination</t>
+  </si>
+  <si>
+    <t>p_lambda: 0~2 &amp; p_time:0~10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_p:0~1 &amp; p_t:0~10</t>
+  </si>
+  <si>
+    <t>p_x:0~1 &amp; p_y:0~1</t>
+  </si>
+  <si>
+    <t>p_m:10~20 &amp; p_i:0~20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_m:10~20 &amp; p_i:0~20</t>
+  </si>
+  <si>
+    <t>p_c:0~30 &amp; p_i:0~4</t>
+  </si>
+  <si>
+    <t>p_t:0~0.1 &amp; p_x:1~10</t>
+  </si>
+  <si>
+    <t>p_x:-0.8~0.8 &amp; p_t:0~10</t>
+  </si>
+  <si>
+    <t>growing-walk-Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>termination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,6 +285,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7DD5DB-4346-424E-A132-B206722060CB}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -637,15 +645,15 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -654,408 +662,459 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="68">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="34">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1E-4</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1E-4</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1E-4</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1E-4</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1E-4</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17">
+        <v>8</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1E-4</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>33</v>
@@ -1064,108 +1123,120 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1E-4</v>
       </c>
       <c r="F19">
         <v>90</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="34">
+      <c r="I19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="34">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="34">
+        <v>8</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="34">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="34">
+        <v>8</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="34">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="34">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="34">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -1174,73 +1245,82 @@
         <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="34">
+        <v>8</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="34">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="34">
+        <v>8</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="34">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="34">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="34">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1E-4</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>47</v>
@@ -1248,36 +1328,69 @@
       <c r="H26">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="51">
+      <c r="I26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="34">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1E-4</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="51">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>4</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A20:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
